--- a/test/HMRC-Examples/CRYPTO22280.xlsx
+++ b/test/HMRC-Examples/CRYPTO22280.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgreen/Development/BittyTaxRelease/BittyTax/test/HMRC-Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C08E9-41A4-4A41-80BB-774685435086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E01853-04EA-AC40-AE07-3A09F1824977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="4540" windowWidth="38980" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Trade</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Terri decides to sell 1,000 of the tokens for £5,000. The transaction requires that she pays a fee of 0.1% of what she is selling, i.e. 1 token.</t>
-  </si>
-  <si>
-    <t>§</t>
   </si>
 </sst>
 </file>
@@ -156,15 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -173,18 +169,12 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF000000"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.##############################"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -562,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +566,7 @@
     <col min="3" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="9" customWidth="1"/>
     <col min="9" max="10" width="9.6640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" customWidth="1"/>
@@ -613,7 +603,7 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -632,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -645,7 +635,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -736,34 +726,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="9" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>INT(B4)=B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="8" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>INT(E4)=E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="6" priority="31">
+    <cfRule type="expression" dxfId="5" priority="31">
       <formula>INT(E5)=E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>INT(B3)=B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="4" priority="23">
+    <cfRule type="expression" dxfId="3" priority="23">
       <formula>INT(E3)=E3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/HMRC-Examples/CRYPTO22280.xlsx
+++ b/test/HMRC-Examples/CRYPTO22280.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgreen/Development/BittyTaxRelease/BittyTax/test/HMRC-Examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgreen/Development/BittyTax/test/HMRC-Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E01853-04EA-AC40-AE07-3A09F1824977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361DE53-00B0-0741-88F1-C40C0ECD744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="4540" windowWidth="38980" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="5300" windowWidth="38980" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRYPTO22280" sheetId="1" r:id="rId1"/>
@@ -37,27 +37,18 @@
     <t>Buy Asset</t>
   </si>
   <si>
-    <t>Buy Value</t>
-  </si>
-  <si>
     <t>Sell Quantity</t>
   </si>
   <si>
     <t>Sell Asset</t>
   </si>
   <si>
-    <t>Sell Value</t>
-  </si>
-  <si>
     <t>Fee Quantity</t>
   </si>
   <si>
     <t>Fee Asset</t>
   </si>
   <si>
-    <t>Fee Value</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
@@ -83,6 +74,15 @@
   </si>
   <si>
     <t>Terri decides to sell 1,000 of the tokens for £5,000. The transaction requires that she pays a fee of 0.1% of what she is selling, i.e. 1 token.</t>
+  </si>
+  <si>
+    <t>Buy Value in GBP</t>
+  </si>
+  <si>
+    <t>Sell Value in GBP</t>
+  </si>
+  <si>
+    <t>Fee Value in GBP</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,28 +148,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -211,18 +266,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coinbase" displayName="Coinbase" ref="A1:M5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coinbase" displayName="Coinbase" ref="A1:M5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Buy Quantity"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Buy Asset"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buy Value"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buy Value in GBP"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sell Quantity"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sell Asset"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sell Value"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fee Quantity" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sell Value in GBP"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fee Quantity" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fee Asset"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fee Value"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fee Value in GBP"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Wallet"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Timestamp"/>
     <tableColumn id="13" xr3:uid="{1B575592-E950-C049-878C-B22561FD246F}" name="Note"/>
@@ -556,21 +611,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="9" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="115.5" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="5.6640625" customWidth="1"/>
     <col min="16" max="16" width="19.6640625" customWidth="1"/>
@@ -582,183 +640,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7" t="s">
-        <v>19</v>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <v>43831</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="5">
-        <v>43831</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4">
+        <v>44044.375</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="5">
-        <v>44044.375</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="9" priority="34">
       <formula>INT(B4)=B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="8" priority="35">
       <formula>INT(E4)=E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="5" priority="31">
+    <cfRule type="expression" dxfId="7" priority="31">
       <formula>INT(E5)=E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="4" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>INT(B3)=B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="3" priority="23">
+    <cfRule type="expression" dxfId="5" priority="23">
       <formula>INT(E3)=E3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>INT(H4)=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>INT(H3)=H3</formula>
     </cfRule>
   </conditionalFormatting>
